--- a/medicine/Enfance/Stéphane_Tamaillon/Stéphane_Tamaillon.xlsx
+++ b/medicine/Enfance/Stéphane_Tamaillon/Stéphane_Tamaillon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Tamaillon</t>
+          <t>Stéphane_Tamaillon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stéphane Tamaillon, né le 19 novembre 1970[1] à Montpellier, est un écrivain et scénariste de bande dessinée français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stéphane Tamaillon, né le 19 novembre 1970 à Montpellier, est un écrivain et scénariste de bande dessinée français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Tamaillon</t>
+          <t>Stéphane_Tamaillon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après un passage par les Beaux-Arts, il suit des études d'histoire et devient enseignant. Son premier roman, L'Ogre de la Couronne, parait en 2009, suivi de trois autres publications chez Le Seuil et Gründ.
 Avec Krine, dont le premier tome parait en septembre 2010, il inaugure une série influencée par l'aventure historique, le fantastique, l'uchronie et le steampunk. Tamaillon s'inspire d'œuvres du XIXe siècle, dont celles d'Arthur Conan Doyle, Mary Shelley, Bram Stoker ou Robert Louis Stevenson. Il poursuivra dans cette voie avec le diptyque intitulé L'Ultramonde.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Tamaillon</t>
+          <t>Stéphane_Tamaillon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2009 avril : L'Ogre de la Couronne, Les 400 Coups.
 2009 juin : Dans les griffes du Klan, Le Seuil.
@@ -569,7 +585,7 @@
 2018 octobre : Liloo, fille des cavernes, T2, La montagne des âmes (avec Pierre Uong), Frimousse.
 2018 octobre : Jules César. Une visite au musée des temps passés (avec Alexandre Grandazzi et Alice Meitegnier), Gründ/Perrin.
 2020 : La baronne du jazz, Stéphane Tamaillon (scénario), Priscilla Horviller  (dessin, couleurs), Steinkis  (ISBN 9782368462751)
-2021 : L'Île du docteur Moreau de H.G. Wells, Tome 1, Stéphane Tamaillon (scénario), Joël Legars (dessin) et Anna Conzatti (couleurs), Delcourt (ISBN 9782413039464)[2]
+2021 : L'Île du docteur Moreau de H.G. Wells, Tome 1, Stéphane Tamaillon (scénario), Joël Legars (dessin) et Anna Conzatti (couleurs), Delcourt (ISBN 9782413039464)
 2022 : Les enfants d'abord : Janusz Korczak, une vie au service de la pédagogie et des droits de l'enfant, Stéphane Tamaillon (scénario) et Priscilla Horviller (dessin), Steinkis  (ISBN 9782368464250)
 2023 : L'Île du docteur Moreau de H.G. Wells, Tome 2, Stéphane Tamaillon (scénario), Joël Legars (dessin) et Anna Conzatti (couleurs), Delcourt (ISBN 9782413039471)</t>
         </is>
@@ -581,7 +597,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Tamaillon</t>
+          <t>Stéphane_Tamaillon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -599,9 +615,11 @@
           <t>Autres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant la crise du Covid-19 en 2020, il a participé à un collectif d’auteurs et d’autrices (Cassandra O'Donnell, Carina Rozenfeld, Jean-Luc Marcastel, Silène Edgar, Thomas Andrew, Sebastian Bernadotte, Anne-Marie Desplat-Duc, Evelyne Brisou-Pellen, Laurence Colin, Katia Lanero Zamora, Camille Salomon, Anna Combelle, Solène Chartier, Carole Jamin) qui ont mis des histoires en libre de droit sur le site Kilitoo[3], proposant ainsi aux enfants de 2 à 15 ans un vaste choix de lectures basées sur le fantastique, la fantasy et l’imaginaire.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant la crise du Covid-19 en 2020, il a participé à un collectif d’auteurs et d’autrices (Cassandra O'Donnell, Carina Rozenfeld, Jean-Luc Marcastel, Silène Edgar, Thomas Andrew, Sebastian Bernadotte, Anne-Marie Desplat-Duc, Evelyne Brisou-Pellen, Laurence Colin, Katia Lanero Zamora, Camille Salomon, Anna Combelle, Solène Chartier, Carole Jamin) qui ont mis des histoires en libre de droit sur le site Kilitoo, proposant ainsi aux enfants de 2 à 15 ans un vaste choix de lectures basées sur le fantastique, la fantasy et l’imaginaire.
 </t>
         </is>
       </c>
